--- a/biology/Histoire de la zoologie et de la botanique/Les_Inventions_de_la_vie/Les_Inventions_de_la_vie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Les_Inventions_de_la_vie/Les_Inventions_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Inventions de la vie est une série documentaire animalière écrite et réalisée par Jean-Pierre Cuny avec la collaboration de Christine Parchet-Morizet.
@@ -512,11 +524,13 @@
           <t>Documentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1990, la série Les Inventions de la vie complète la série L'Aventure des plantes, en expliquant à travers des exemples souvent extraordinaires, par des reportages venant du monde entier et des animations, l'évolution du monde animal, de la première cellule jusqu'à la diversité des organismes actuels et les stratagèmes de lutte pour la vie.
 La série a été coproduite en trois saisons (1990, 1992 et 1995) par Canal+, Télévision suisse romande, Télé Union Paris, et d'autres partenaires selon les saisons, avec le concours du Centre National de la Cinématographie et le soutien de la Procirep. Chaque saison comportait 13 épisodes d'environ 26 minutes.
-La musique du générique, de Joël Fajerman, est intitulée « Flower's Love[1] ». L'album reprenant l'ensemble des musiques de la série est édité par Joel Fajerman Productions (c) 1991, et toujours commercialisé aujourd'hui contrairement à la série elle-même.
+La musique du générique, de Joël Fajerman, est intitulée « Flower's Love ». L'album reprenant l'ensemble des musiques de la série est édité par Joel Fajerman Productions (c) 1991, et toujours commercialisé aujourd'hui contrairement à la série elle-même.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« On s'émerveille devant ce déluge d'images superbes, souvent stupéfiantes, parfois mêlées de dessins animés et enrichies d'un commentaire simple et séduisant. » La Vie
-« Fabuleuses images, voix moqueuse, commentaire hilarant. C'est érudit mais drôle. [...] Quel ravissement ! » Le Monde[2]
+« Fabuleuses images, voix moqueuse, commentaire hilarant. C'est érudit mais drôle. [...] Quel ravissement ! » Le Monde
 </t>
         </is>
       </c>
@@ -577,11 +593,48 @@
           <t>Liste des épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les trois saisons sont une constante, mais la numérotation à l'intérieur des saisons change selon les sources : diffusion originale, archives INA, édition en intégrale VHS.
-Les Inventions de la vie
-Épisodes de 1990, co-produits par Antenne 2, Canal +, Neyrac Films, RTSR, Télé Union Paris. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois saisons sont une constante, mais la numérotation à l'intérieur des saisons change selon les sources : diffusion originale, archives INA, édition en intégrale VHS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Inventions_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Inventions_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Inventions de la vie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Épisodes de 1990, co-produits par Antenne 2, Canal +, Neyrac Films, RTSR, Télé Union Paris. 
 Le générique reprend celui de L'Aventure des plantes, avec une modification mineure : un papillon se pose sur la casquette du personnage assis.
 1 - A la vie à l'amour
 2 - L'école de l'arnaque
@@ -595,9 +648,43 @@
 10 - L'école des prédateurs
 11 - Le prédateur des prédateurs
 12 - Le territoire des herbes
-13 - Les enfants du parasite
-Les Inventions de la vie II
-Épisodes de 1992, co-produits par Antenne 2 / France 2, Canal +, Neyrac Films, RTSR, 352 Production, Télé Union Paris.
+13 - Les enfants du parasite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Inventions_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Inventions_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Inventions de la vie II</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Épisodes de 1992, co-produits par Antenne 2 / France 2, Canal +, Neyrac Films, RTSR, 352 Production, Télé Union Paris.
 14 - Comment s'en sortir quand on est dans la mer une fois sur deux
 15 - La méduse au bord de l'eau
 16 - Avec presque rien et de l'eau
@@ -610,9 +697,43 @@
 23 - Il y a longtemps que je te sème 
 24 - La patience du macho à plume
 25 - Va te faire un oeuf
-26 - La graine au bois dormant
-Les inventions de la vie III
-Épisodes de 1995, co-produits par Canal +, TSR, Télé Union Paris, TVR Productions. Le générique de début change radicalement, le dessin animé est remplacé par des extraits vidéos en prise de vue réelle.
+26 - La graine au bois dormant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Inventions_de_la_vie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Inventions_de_la_vie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les inventions de la vie III</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Épisodes de 1995, co-produits par Canal +, TSR, Télé Union Paris, TVR Productions. Le générique de début change radicalement, le dessin animé est remplacé par des extraits vidéos en prise de vue réelle.
 27 - Les parents, c'est des drôles d'oiseaux
 28 - Fais-moi une fleur  
 29 - Les surdoués sous-estimés
